--- a/CashFlow/UBER_cashflow.xlsx
+++ b/CashFlow/UBER_cashflow.xlsx
@@ -346,10 +346,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-133000000.0</v>
+        <v>943000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>84000000.0</v>
+        <v>980000000.0</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
